--- a/outputs/results.xlsx
+++ b/outputs/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shreyas/Desktop/Workspace/FastStream Tech/ectm/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5106ABE7-31BD-9242-B8B2-D1E0C8668870}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8976EC0A-08DB-7448-AEF3-39224D92B175}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17560" xr2:uid="{551CB910-A9A8-CB40-BF6B-D42A12EA74E9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Engine</t>
   </si>
@@ -37,6 +37,96 @@
   </si>
   <si>
     <t>Random Forest</t>
+  </si>
+  <si>
+    <t>﻿0.6426537081434025</t>
+  </si>
+  <si>
+    <t>﻿0.7640205667302705</t>
+  </si>
+  <si>
+    <t>﻿0.6416514610273727</t>
+  </si>
+  <si>
+    <t>﻿0.8241786477160935</t>
+  </si>
+  <si>
+    <t>﻿0.7090612731879078</t>
+  </si>
+  <si>
+    <t>﻿0.8242803456712083</t>
+  </si>
+  <si>
+    <t>﻿0.6043628289272571</t>
+  </si>
+  <si>
+    <t>﻿0.8486387889134056</t>
+  </si>
+  <si>
+    <t>﻿0.642274025348277</t>
+  </si>
+  <si>
+    <t>﻿0.7033402800678533</t>
+  </si>
+  <si>
+    <t>﻿0.9916717878571842</t>
+  </si>
+  <si>
+    <t>﻿0.9933298544803262</t>
+  </si>
+  <si>
+    <t>﻿0.9920002012067051</t>
+  </si>
+  <si>
+    <t>﻿0.9654130195500206</t>
+  </si>
+  <si>
+    <t>﻿0.9843549008663954</t>
+  </si>
+  <si>
+    <t>﻿0.997770065022233</t>
+  </si>
+  <si>
+    <t>﻿0.9975117997988555</t>
+  </si>
+  <si>
+    <t>﻿0.9987924602052374</t>
+  </si>
+  <si>
+    <t>﻿0.9609628325590751</t>
+  </si>
+  <si>
+    <t>﻿0.9811984393073315</t>
+  </si>
+  <si>
+    <t>﻿0.9904481963081587</t>
+  </si>
+  <si>
+    <t>﻿0.9915195518315205</t>
+  </si>
+  <si>
+    <t>﻿0.9927865839222267</t>
+  </si>
+  <si>
+    <t>﻿0.9638597924640533</t>
+  </si>
+  <si>
+    <t>﻿0.9830647744139094</t>
+  </si>
+  <si>
+    <t>﻿0.9977046840685472</t>
+  </si>
+  <si>
+    <t>﻿0.9942884196504841</t>
+  </si>
+  <si>
+    <t>﻿0.9981228140655145</t>
+  </si>
+  <si>
+    <t>﻿0.9600466365473174</t>
+  </si>
+  <si>
+    <t>﻿0.9780603335006917</t>
   </si>
 </sst>
 </file>
@@ -404,16 +494,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C32432-57A1-9C4E-B6EF-935570A417AE}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="244" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="163" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -435,66 +524,66 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.94720000000000004</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.97750000000000004</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.97819999999999996</v>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.88849999999999996</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.99370000000000003</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.99590000000000001</v>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.87829999999999997</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.97989999999999999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.97989999999999999</v>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -504,14 +593,14 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.8962</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.97989999999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.75480000000000003</v>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -527,43 +616,43 @@
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.91279999999999994</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.99819999999999998</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.99829999999999997</v>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.95720000000000005</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.88649999999999995</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.90490000000000004</v>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -573,14 +662,14 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.9909</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.99</v>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -596,14 +685,14 @@
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.89339999999999997</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.95650000000000002</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.95369999999999999</v>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -619,20 +708,20 @@
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.92120000000000002</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.89580000000000004</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.8891</v>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -642,14 +731,14 @@
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.91779999999999995</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.93759999999999999</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.93579999999999997</v>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -662,26 +751,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
-        <f>SUM(B3:B12)</f>
-        <v>9.1145999999999994</v>
-      </c>
-      <c r="C13" s="2">
-        <f>SUM(C3:C12)</f>
-        <v>9.5964999999999989</v>
-      </c>
-      <c r="D13" s="2">
-        <f>SUM(D3:D12)</f>
-        <v>9.3806000000000012</v>
-      </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G13" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
